--- a/data/cavicam/camp2/camp2_psi.xlsx
+++ b/data/cavicam/camp2/camp2_psi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GWDG_owncloud\EAM\04\msc\hainich_hydraulics\cavicam\camp2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10 Pro x64\ownCloud - florian.wilms01@stud.uni-goettingen.de@owncloud.gwdg.de\EAM\04\msc\hainich_hydraulics\data\cavicam\camp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626100CF-71B6-42A7-92A8-26F8F12DC119}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEA7838-D0A9-403D-97E9-BDD859124764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="1000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -358,8 +358,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,14 +643,14 @@
       <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,34 +662,34 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -701,24 +701,24 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -732,7 +732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -754,7 +754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -765,7 +765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -776,7 +776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -787,31 +787,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -825,7 +825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -839,7 +839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -853,7 +853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -867,7 +867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -881,7 +881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -895,7 +895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -909,7 +909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -923,7 +923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -937,7 +937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -961,19 +961,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7B7B6D-700E-A440-995B-35421F52B2D3}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1295,15 +1295,15 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1624,15 +1624,15 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1922,15 +1922,15 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2217,19 +2217,19 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2495,9 +2495,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="8">
         <v>45486.738194444442</v>
@@ -2519,19 +2519,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2872,19 +2872,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3BE6E7-6F1A-8A47-B957-9C3F35EEC487}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -3265,15 +3265,15 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
